--- a/private/dw/presupuesto.xlsx
+++ b/private/dw/presupuesto.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9C3743C9-A8BD-4062-9732-8D65C939FF38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18465" yWindow="-15" windowWidth="15480" windowHeight="8985" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18465" yWindow="-15" windowWidth="15480" windowHeight="8985" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,58 @@
     <t>Categoría</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CIMENTA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> S&amp;S </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CONSTRUCCIÓN LIMITADA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">                      76.614.473-K</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FECHA </t>
+  </si>
+  <si>
+    <t>PRESUPUESTO MANO DE OBRA</t>
+  </si>
+  <si>
+    <t>OBRA:</t>
+  </si>
+  <si>
+    <t>PROPIETARIO:</t>
   </si>
   <si>
     <t>Partida</t>
@@ -452,62 +502,11 @@
   <si>
     <t>Detalle 10</t>
   </si>
-  <si>
-    <t>COTIZACION</t>
-  </si>
-  <si>
-    <t>CLIENTE.</t>
-  </si>
-  <si>
-    <t>EMPRESA:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>GROWVISION</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>COMERCIAL Y SERVICIOS ALEXIS EVALDO WILHELM HENRIQUEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> E.I.R.L.                    76.597.278-7</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -980,16 +979,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518294</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>298055</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606473</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1192125</xdr:colOff>
+      <xdr:colOff>942093</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
+      <xdr:rowOff>378617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1005,7 +1004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1018,8 +1017,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="518294" y="631430"/>
-          <a:ext cx="1912081" cy="535382"/>
+          <a:off x="606473" y="297655"/>
+          <a:ext cx="966651" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1298,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1328,12 +1327,12 @@
     <row r="3" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="15"/>
       <c r="D3" s="61" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
       <c r="G3" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1348,7 +1347,7 @@
       <c r="F4" s="61"/>
       <c r="G4" s="17">
         <f ca="1">TODAY()</f>
-        <v>43214</v>
+        <v>43159</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1358,7 +1357,7 @@
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="62" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="60"/>
@@ -1372,7 +1371,7 @@
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="60"/>
@@ -1384,7 +1383,7 @@
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="60"/>
@@ -1400,7 +1399,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="19"/>
       <c r="F8" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G8" s="45">
         <f>SUM(G22+G36+G51+G65+G79+G93+G107+G121+G135+G149)</f>
@@ -1422,22 +1421,22 @@
     </row>
     <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="3"/>
@@ -1447,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1458,13 +1457,13 @@
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E12" s="37">
         <v>0</v>
@@ -1481,13 +1480,13 @@
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E13" s="37">
         <v>0</v>
@@ -1504,13 +1503,13 @@
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E14" s="37">
         <v>0</v>
@@ -1527,13 +1526,13 @@
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E15" s="37">
         <v>0</v>
@@ -1547,18 +1546,18 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16" s="37">
         <v>0</v>
@@ -1575,13 +1574,13 @@
     </row>
     <row r="17" spans="2:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E17" s="37">
         <v>0</v>
@@ -1598,13 +1597,13 @@
     </row>
     <row r="18" spans="2:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E18" s="37">
         <v>0</v>
@@ -1621,13 +1620,13 @@
     </row>
     <row r="19" spans="2:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E19" s="37">
         <v>0</v>
@@ -1644,13 +1643,13 @@
     </row>
     <row r="20" spans="2:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="42" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E20" s="37">
         <v>0</v>
@@ -1667,10 +1666,10 @@
     </row>
     <row r="21" spans="2:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="37">
@@ -1691,7 +1690,7 @@
       <c r="D22" s="22"/>
       <c r="E22" s="26"/>
       <c r="F22" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G22" s="39">
         <f>SUM(G12:G21)</f>
@@ -1711,22 +1710,22 @@
     </row>
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1736,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
@@ -1747,13 +1746,13 @@
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E26" s="37">
         <v>0</v>
@@ -1770,13 +1769,13 @@
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E27" s="37">
         <v>0</v>
@@ -1793,13 +1792,13 @@
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E28" s="37">
         <v>0</v>
@@ -1816,13 +1815,13 @@
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E29" s="37">
         <v>0</v>
@@ -1839,13 +1838,13 @@
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E30" s="37">
         <v>0</v>
@@ -1862,13 +1861,13 @@
     </row>
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E31" s="37">
         <v>0</v>
@@ -1885,13 +1884,13 @@
     </row>
     <row r="32" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E32" s="37">
         <v>0</v>
@@ -1908,13 +1907,13 @@
     </row>
     <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="42" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E33" s="37">
         <v>0</v>
@@ -1931,13 +1930,13 @@
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E34" s="37">
         <v>0</v>
@@ -1954,10 +1953,10 @@
     </row>
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="42" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="37">
@@ -1979,7 +1978,7 @@
       <c r="D36" s="22"/>
       <c r="E36" s="26"/>
       <c r="F36" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36" s="39">
         <f>SUM(G26:G35)</f>
@@ -2010,22 +2009,22 @@
     </row>
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2035,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23"/>
@@ -2046,13 +2045,13 @@
     </row>
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="42" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E41" s="37">
         <v>0</v>
@@ -2069,13 +2068,13 @@
     </row>
     <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E42" s="37">
         <v>0</v>
@@ -2092,13 +2091,13 @@
     </row>
     <row r="43" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E43" s="37">
         <v>0</v>
@@ -2115,13 +2114,13 @@
     </row>
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="42" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E44" s="37">
         <v>0</v>
@@ -2138,13 +2137,13 @@
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E45" s="37">
         <v>0</v>
@@ -2161,13 +2160,13 @@
     </row>
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E46" s="37">
         <v>0</v>
@@ -2184,13 +2183,13 @@
     </row>
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E47" s="37">
         <v>0</v>
@@ -2207,13 +2206,13 @@
     </row>
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E48" s="37">
         <v>0</v>
@@ -2230,13 +2229,13 @@
     </row>
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E49" s="37">
         <v>0</v>
@@ -2253,10 +2252,10 @@
     </row>
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="37">
@@ -2278,7 +2277,7 @@
       <c r="D51" s="22"/>
       <c r="E51" s="26"/>
       <c r="F51" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G51" s="39">
         <f>SUM(G41:G50)</f>
@@ -2299,22 +2298,22 @@
     </row>
     <row r="53" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2324,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="23"/>
@@ -2334,13 +2333,13 @@
     </row>
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E55" s="37">
         <v>0</v>
@@ -2356,13 +2355,13 @@
     </row>
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" s="37">
         <v>0</v>
@@ -2378,13 +2377,13 @@
     </row>
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E57" s="37">
         <v>0</v>
@@ -2400,13 +2399,13 @@
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E58" s="37">
         <v>0</v>
@@ -2422,13 +2421,13 @@
     </row>
     <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E59" s="37">
         <v>0</v>
@@ -2444,13 +2443,13 @@
     </row>
     <row r="60" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="37">
         <v>0</v>
@@ -2466,13 +2465,13 @@
     </row>
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" s="37">
         <v>0</v>
@@ -2488,13 +2487,13 @@
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E62" s="37">
         <v>0</v>
@@ -2510,13 +2509,13 @@
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E63" s="37">
         <v>0</v>
@@ -2532,10 +2531,10 @@
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="37">
@@ -2556,7 +2555,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="26"/>
       <c r="F65" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G65" s="39">
         <f>SUM(G55:G64)</f>
@@ -2575,22 +2574,22 @@
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H67" s="3"/>
     </row>
@@ -2599,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
@@ -2609,13 +2608,13 @@
     </row>
     <row r="69" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E69" s="37">
         <v>0</v>
@@ -2631,13 +2630,13 @@
     </row>
     <row r="70" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70" s="37">
         <v>0</v>
@@ -2653,13 +2652,13 @@
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E71" s="37">
         <v>0</v>
@@ -2675,13 +2674,13 @@
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E72" s="37">
         <v>0</v>
@@ -2697,13 +2696,13 @@
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E73" s="37">
         <v>0</v>
@@ -2719,13 +2718,13 @@
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="37">
         <v>0</v>
@@ -2741,13 +2740,13 @@
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="37">
         <v>0</v>
@@ -2763,13 +2762,13 @@
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E76" s="37">
         <v>0</v>
@@ -2785,13 +2784,13 @@
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="37">
         <v>0</v>
@@ -2807,10 +2806,10 @@
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="37">
@@ -2831,7 +2830,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="26"/>
       <c r="F79" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G79" s="39">
         <f>SUM(G69:G78)</f>
@@ -2850,22 +2849,22 @@
     </row>
     <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H81" s="3"/>
     </row>
@@ -2874,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="23"/>
@@ -2886,13 +2885,13 @@
     </row>
     <row r="83" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E83" s="37">
         <v>0</v>
@@ -2910,13 +2909,13 @@
     </row>
     <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="37">
         <v>0</v>
@@ -2934,13 +2933,13 @@
     </row>
     <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" s="37">
         <v>0</v>
@@ -2958,13 +2957,13 @@
     </row>
     <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E86" s="37">
         <v>0</v>
@@ -2982,13 +2981,13 @@
     </row>
     <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="37">
         <v>0</v>
@@ -3006,13 +3005,13 @@
     </row>
     <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="37">
         <v>0</v>
@@ -3030,13 +3029,13 @@
     </row>
     <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E89" s="37">
         <v>0</v>
@@ -3054,13 +3053,13 @@
     </row>
     <row r="90" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E90" s="37">
         <v>0</v>
@@ -3078,13 +3077,13 @@
     </row>
     <row r="91" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="37">
         <v>0</v>
@@ -3102,10 +3101,10 @@
     </row>
     <row r="92" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="37">
@@ -3128,7 +3127,7 @@
       <c r="D93" s="22"/>
       <c r="E93" s="26"/>
       <c r="F93" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G93" s="39">
         <f>SUM(G83:G92)</f>
@@ -3155,22 +3154,22 @@
     </row>
     <row r="95" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H95" s="41"/>
     </row>
@@ -3179,7 +3178,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="23"/>
@@ -3189,13 +3188,13 @@
     </row>
     <row r="97" spans="2:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E97" s="37">
         <v>0</v>
@@ -3211,13 +3210,13 @@
     </row>
     <row r="98" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98" s="37">
         <v>0</v>
@@ -3233,13 +3232,13 @@
     </row>
     <row r="99" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E99" s="37">
         <v>0</v>
@@ -3255,13 +3254,13 @@
     </row>
     <row r="100" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E100" s="37">
         <v>0</v>
@@ -3277,13 +3276,13 @@
     </row>
     <row r="101" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E101" s="37">
         <v>0</v>
@@ -3299,13 +3298,13 @@
     </row>
     <row r="102" spans="2:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E102" s="37">
         <v>0</v>
@@ -3321,13 +3320,13 @@
     </row>
     <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E103" s="37">
         <v>0</v>
@@ -3343,13 +3342,13 @@
     </row>
     <row r="104" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E104" s="37">
         <v>0</v>
@@ -3365,13 +3364,13 @@
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E105" s="37">
         <v>0</v>
@@ -3387,10 +3386,10 @@
     </row>
     <row r="106" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="37">
@@ -3411,7 +3410,7 @@
       <c r="D107" s="22"/>
       <c r="E107" s="26"/>
       <c r="F107" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G107" s="39">
         <f>SUM(G97:G106)</f>
@@ -3430,22 +3429,22 @@
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C109" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G109" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H109" s="3"/>
     </row>
@@ -3454,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="23"/>
@@ -3464,13 +3463,13 @@
     </row>
     <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E111" s="37">
         <v>0</v>
@@ -3486,13 +3485,13 @@
     </row>
     <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E112" s="37">
         <v>0</v>
@@ -3508,13 +3507,13 @@
     </row>
     <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C113" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E113" s="37">
         <v>0</v>
@@ -3530,13 +3529,13 @@
     </row>
     <row r="114" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C114" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E114" s="37">
         <v>0</v>
@@ -3552,13 +3551,13 @@
     </row>
     <row r="115" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E115" s="37">
         <v>0</v>
@@ -3574,13 +3573,13 @@
     </row>
     <row r="116" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C116" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E116" s="37">
         <v>0</v>
@@ -3596,13 +3595,13 @@
     </row>
     <row r="117" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C117" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E117" s="37">
         <v>0</v>
@@ -3618,13 +3617,13 @@
     </row>
     <row r="118" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C118" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="37">
         <v>0</v>
@@ -3640,13 +3639,13 @@
     </row>
     <row r="119" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C119" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E119" s="37">
         <v>0</v>
@@ -3662,10 +3661,10 @@
     </row>
     <row r="120" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C120" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="37">
@@ -3686,7 +3685,7 @@
       <c r="D121" s="22"/>
       <c r="E121" s="26"/>
       <c r="F121" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G121" s="39">
         <f>SUM(G111:G120)</f>
@@ -3705,22 +3704,22 @@
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C123" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E123" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G123" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H123" s="3"/>
     </row>
@@ -3729,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="23"/>
@@ -3739,13 +3738,13 @@
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" s="42" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E125" s="37">
         <v>0</v>
@@ -3761,13 +3760,13 @@
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B126" s="42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E126" s="37">
         <v>0</v>
@@ -3783,13 +3782,13 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127" s="42" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E127" s="37">
         <v>0</v>
@@ -3805,13 +3804,13 @@
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B128" s="42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E128" s="37">
         <v>0</v>
@@ -3827,13 +3826,13 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E129" s="37">
         <v>0</v>
@@ -3849,13 +3848,13 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E130" s="37">
         <v>0</v>
@@ -3870,13 +3869,13 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="42" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E131" s="37">
         <v>0</v>
@@ -3891,13 +3890,13 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="42" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C132" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E132" s="37">
         <v>0</v>
@@ -3912,13 +3911,13 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="42" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E133" s="37">
         <v>0</v>
@@ -3933,10 +3932,10 @@
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="37">
@@ -3956,7 +3955,7 @@
       <c r="D135" s="22"/>
       <c r="E135" s="26"/>
       <c r="F135" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G135" s="39">
         <f>SUM(G125:G134)</f>
@@ -3972,22 +3971,22 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C137" s="54" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G137" s="35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
@@ -3995,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="C138" s="52" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D138" s="22"/>
       <c r="E138" s="23"/>
@@ -4004,13 +4003,13 @@
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E139" s="37">
         <v>0</v>
@@ -4025,13 +4024,13 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E140" s="37">
         <v>0</v>
@@ -4046,13 +4045,13 @@
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="42" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E141" s="37">
         <v>0</v>
@@ -4067,13 +4066,13 @@
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E142" s="37">
         <v>0</v>
@@ -4088,13 +4087,13 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E143" s="37">
         <v>0</v>
@@ -4109,13 +4108,13 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E144" s="37">
         <v>0</v>
@@ -4130,13 +4129,13 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="42" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E145" s="37">
         <v>0</v>
@@ -4152,13 +4151,13 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C146" s="51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E146" s="37">
         <v>0</v>
@@ -4173,13 +4172,13 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B147" s="42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E147" s="37">
         <v>0</v>
@@ -4194,10 +4193,10 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="42" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="37">
@@ -4217,7 +4216,7 @@
       <c r="D149" s="22"/>
       <c r="E149" s="26"/>
       <c r="F149" s="36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G149" s="39">
         <f>SUM(G139:G148)</f>
@@ -4262,7 +4261,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lista!$A$1:$A$8</xm:f>
           </x14:formula1>
@@ -4275,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4401,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4412,42 +4411,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
